--- a/data/monthly_data_max.xlsx
+++ b/data/monthly_data_max.xlsx
@@ -2576,7 +2576,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2585,72 +2585,72 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P13" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="n">
+        <v>14.07741935483871</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="n">
-        <v>14.38569828469022</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="n">
+        <v>19.31290322580645</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="V13" t="n">
-        <v>19.81428571428571</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="Y13" t="n">
-        <v>10.25714285714286</v>
+        <v>10.21935483870968</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>1022.951523297491</v>
+        <v>1024.29538083281</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>

--- a/data/monthly_data_max.xlsx
+++ b/data/monthly_data_max.xlsx
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>1024.29538083281</v>
+        <v>1025.064040322581</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>

--- a/data/monthly_data_max.xlsx
+++ b/data/monthly_data_max.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -697,11 +697,11 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>12.60752813494749</v>
+        <v>13.39805720899471</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -723,11 +723,11 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>18.00322580645161</v>
+        <v>18.55833333333333</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>8.480645161290322</v>
+        <v>9.708333333333334</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>8.525690214803117</v>
+        <v>9.15324074074074</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>1025.064040322581</v>
+        <v>1025.067361111111</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>

--- a/data/monthly_data_max.xlsx
+++ b/data/monthly_data_max.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -697,11 +697,11 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>13.39805720899471</v>
+        <v>12.60752813494749</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -723,11 +723,11 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>18.55833333333333</v>
+        <v>18.00322580645161</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>9.708333333333334</v>
+        <v>8.480645161290322</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>9.15324074074074</v>
+        <v>8.525690214803117</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
